--- a/ipa_1_2/myUtils/models.xlsx
+++ b/ipa_1_2/myUtils/models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\WebExp\WebExperiment\profilePresntaion\myUtils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B521D3B0-BCDD-4DDB-8886-0B4268724F35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8EA25B-02F2-4435-8AF4-FDC0435A107A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,23 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>context</t>
   </si>
   <si>
-    <t>Political Affiliation</t>
-  </si>
-  <si>
-    <t>Hobbies</t>
-  </si>
-  <si>
-    <t>Body Size</t>
-  </si>
-  <si>
-    <t>Intelligece</t>
-  </si>
-  <si>
     <t>trade</t>
   </si>
   <si>
@@ -64,6 +52,33 @@
   </si>
   <si>
     <t>neutral</t>
+  </si>
+  <si>
+    <t>body_size</t>
+  </si>
+  <si>
+    <t>dress_propeties</t>
+  </si>
+  <si>
+    <t>hobbies</t>
+  </si>
+  <si>
+    <t>intelligence</t>
+  </si>
+  <si>
+    <t>personality</t>
+  </si>
+  <si>
+    <t>political_affiliation</t>
+  </si>
+  <si>
+    <t>ethnicity_skin_color</t>
+  </si>
+  <si>
+    <t>socio_economic</t>
+  </si>
+  <si>
+    <t>way_of_speech</t>
   </si>
 </sst>
 </file>
@@ -381,114 +396,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>2.4649639917621199E-2</v>
+      </c>
+      <c r="C2">
+        <v>2.4635456592512501E-2</v>
+      </c>
+      <c r="D2">
+        <v>6.3961646142211503E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.120519250126453</v>
+      </c>
+      <c r="F2">
+        <v>0.153503587410487</v>
+      </c>
+      <c r="G2">
+        <v>6.5942468705538201E-2</v>
+      </c>
+      <c r="H2">
+        <v>6.0864429650064403E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.37123311941125098</v>
+      </c>
+      <c r="J2">
+        <v>0.114690402043858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3">
+        <v>5.0048262863488603E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.124465299991199</v>
+      </c>
+      <c r="D3">
+        <v>0.14189064619369399</v>
+      </c>
+      <c r="E3">
+        <v>0.13456399295383401</v>
+      </c>
+      <c r="F3">
+        <v>4.9367251588039E-2</v>
+      </c>
+      <c r="G3">
+        <v>7.8180772553524902E-2</v>
+      </c>
+      <c r="H3">
+        <v>8.0352783685589999E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.26496633838091399</v>
+      </c>
+      <c r="J3">
+        <v>7.6164651789715501E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4">
+        <v>7.8281215349951805E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.24596421347366301</v>
+      </c>
+      <c r="D4">
+        <v>6.6657274530676894E-2</v>
+      </c>
+      <c r="E4">
+        <v>9.7502792881625402E-2</v>
+      </c>
+      <c r="F4">
+        <v>6.1222599284850202E-2</v>
+      </c>
+      <c r="G4">
+        <v>9.59631394816918E-2</v>
+      </c>
+      <c r="H4">
+        <v>8.16216309435467E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.21704071752642101</v>
+      </c>
+      <c r="J4">
+        <v>5.5746416527572E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>3.9310470125831103E-2</v>
+      </c>
+      <c r="C5">
+        <v>5.7054478286120203E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.34900131321167499</v>
+      </c>
+      <c r="E5">
+        <v>3.0069527938267299E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.11034193087724301</v>
+      </c>
+      <c r="G5">
+        <v>3.4432415266837699E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.11173760988235</v>
+      </c>
+      <c r="I5">
+        <v>0.15143670008993701</v>
+      </c>
+      <c r="J5">
+        <v>0.116615554321736</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>0.3</v>
-      </c>
-      <c r="C2">
-        <v>0.2</v>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
-      <c r="C3">
-        <v>0.2</v>
-      </c>
-      <c r="D3">
-        <v>0.4</v>
-      </c>
-      <c r="E3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.5</v>
-      </c>
-      <c r="C4">
-        <v>0.3</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.4</v>
-      </c>
-      <c r="C5">
-        <v>0.2</v>
-      </c>
-      <c r="D5">
-        <v>0.1</v>
-      </c>
-      <c r="E5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>4.8911334279475797E-2</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>0.116507072739287</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <v>0.15560747566824601</v>
       </c>
       <c r="E6">
-        <v>0.2</v>
+        <v>9.5867024592105304E-2</v>
+      </c>
+      <c r="F6">
+        <v>9.1431360569712905E-2</v>
+      </c>
+      <c r="G6">
+        <v>6.9186475296906302E-2</v>
+      </c>
+      <c r="H6">
+        <v>8.3965797643721099E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.24883032840612301</v>
+      </c>
+      <c r="J6">
+        <v>8.9693130804419804E-2</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_1_2/myUtils/models.xlsx
+++ b/ipa_1_2/myUtils/models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8EA25B-02F2-4435-8AF4-FDC0435A107A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B34753-2C43-4DEE-B524-6B94FE45C67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>context</t>
   </si>
@@ -79,6 +79,60 @@
   </si>
   <si>
     <t>way_of_speech</t>
+  </si>
+  <si>
+    <t>goodness</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>happiness</t>
+  </si>
+  <si>
+    <t>normality</t>
+  </si>
+  <si>
+    <t>appearnce</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>sainity</t>
+  </si>
+  <si>
+    <t>importance</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>c9</t>
   </si>
 </sst>
 </file>
@@ -114,8 +168,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +469,7 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +500,62 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -477,8 +586,80 @@
       <c r="J2">
         <v>0.114690402043858</v>
       </c>
+      <c r="K2" s="1">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:AB7" si="0">1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Q2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="R2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="T2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="U2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="V2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="W2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="X2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Y2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Z2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AA2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AB2" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -509,8 +690,80 @@
       <c r="J3">
         <v>7.6164651789715501E-2</v>
       </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K7" si="1">1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="W3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="X3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AA3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AB3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -541,8 +794,80 @@
       <c r="J4">
         <v>5.5746416527572E-2</v>
       </c>
+      <c r="K4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="W4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="X4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Z4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AA4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AB4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -573,8 +898,80 @@
       <c r="J5">
         <v>0.116615554321736</v>
       </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -605,8 +1002,101 @@
       <c r="J6">
         <v>8.9693130804419804E-2</v>
       </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ipa_1_2/myUtils/models.xlsx
+++ b/ipa_1_2/myUtils/models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B34753-2C43-4DEE-B524-6B94FE45C67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790E1B96-11D3-4DDD-A596-7E9C8D93BF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +591,7 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:AB7" si="0">1/9</f>
+        <f t="shared" ref="L2:AB6" si="0">1/9</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="M2" s="1">
@@ -691,7 +691,7 @@
         <v>7.6164651789715501E-2</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K7" si="1">1/9</f>
+        <f t="shared" ref="K3:K6" si="1">1/9</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="L3" s="1">
@@ -1074,26 +1074,6 @@
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
